--- a/Results/Scenario1-AllMembersLowExpertiseInAllSkills/ExpertiseBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario1-AllMembersLowExpertiseInAllSkills/ExpertiseBased/WithFigures/TeamStats.xlsx
@@ -615,6 +615,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Team Velocity - Expertise Based</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -811,11 +826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="37924704"/>
-        <c:axId val="37918176"/>
+        <c:axId val="2083945744"/>
+        <c:axId val="2083952816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37924704"/>
+        <c:axId val="2083945744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37918176"/>
+        <c:crossAx val="2083952816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -859,7 +874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37918176"/>
+        <c:axId val="2083952816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37924704"/>
+        <c:crossAx val="2083945744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,6 +931,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Story Points - Expertise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Based</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1105,11 +1140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="37923072"/>
-        <c:axId val="37920896"/>
+        <c:axId val="2083946288"/>
+        <c:axId val="2083946832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37923072"/>
+        <c:axId val="2083946288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37920896"/>
+        <c:crossAx val="2083946832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1153,7 +1188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37920896"/>
+        <c:axId val="2083946832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37923072"/>
+        <c:crossAx val="2083946288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1220,8 +1255,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Active vs. Idle Time Periods</a:t>
+              <a:t>Active vs. Idle Time Periods - Expertise Based,</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> First Scenario</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1229,8 +1269,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35917599594563093"/>
-          <c:y val="2.2884062133652293E-3"/>
+          <c:x val="0.17482994128298218"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1244,7 +1284,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.4240763827198274E-2"/>
           <c:y val="9.0645211627121691E-2"/>
-          <c:w val="0.83664274937314043"/>
+          <c:w val="0.91433144383811393"/>
           <c:h val="0.80715600839971213"/>
         </c:manualLayout>
       </c:layout>
@@ -1518,11 +1558,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="37918720"/>
-        <c:axId val="37930144"/>
+        <c:axId val="2083947920"/>
+        <c:axId val="2083955536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37918720"/>
+        <c:axId val="2083947920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37930144"/>
+        <c:crossAx val="2083955536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37930144"/>
+        <c:axId val="2083955536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1604,21 +1644,21 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37918720"/>
+        <c:crossAx val="2083947920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88087688586636015"/>
-          <c:y val="0.83776064856675481"/>
-          <c:w val="0.11750059928020019"/>
-          <c:h val="0.15599110152342985"/>
+          <c:x val="0.77948064594525768"/>
+          <c:y val="0.94946532379866777"/>
+          <c:w val="0.18895688334482125"/>
+          <c:h val="4.1381051347871262E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2002,7 +2042,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,7 +2463,10 @@
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5">
+        <f>AVERAGE(B2:B23)</f>
+        <v>1.4356585868003515</v>
+      </c>
       <c r="C25" s="5">
         <f>AVERAGE(C2:C23)</f>
         <v>99.545454545454547</v>

--- a/Results/Scenario1-AllMembersLowExpertiseInAllSkills/ExpertiseBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario1-AllMembersLowExpertiseInAllSkills/ExpertiseBased/WithFigures/TeamStats.xlsx
@@ -826,11 +826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2083945744"/>
-        <c:axId val="2083952816"/>
+        <c:axId val="-71581392"/>
+        <c:axId val="-71569968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083945744"/>
+        <c:axId val="-71581392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083952816"/>
+        <c:crossAx val="-71569968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -874,7 +874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083952816"/>
+        <c:axId val="-71569968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083945744"/>
+        <c:crossAx val="-71581392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1140,11 +1140,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2083946288"/>
-        <c:axId val="2083946832"/>
+        <c:axId val="-71579760"/>
+        <c:axId val="-71577584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083946288"/>
+        <c:axId val="-71579760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083946832"/>
+        <c:crossAx val="-71577584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,7 +1188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083946832"/>
+        <c:axId val="-71577584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083946288"/>
+        <c:crossAx val="-71579760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1558,11 +1558,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2083947920"/>
-        <c:axId val="2083955536"/>
+        <c:axId val="-71579216"/>
+        <c:axId val="-71580304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2083947920"/>
+        <c:axId val="-71579216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083955536"/>
+        <c:crossAx val="-71580304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083955536"/>
+        <c:axId val="-71580304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1644,7 +1644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083947920"/>
+        <c:crossAx val="-71579216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1659,6 +1659,508 @@
           <c:y val="0.94946532379866777"/>
           <c:w val="0.18895688334482125"/>
           <c:h val="4.1381051347871262E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Team Velocity vs Story</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Points</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t> - Expertise Based</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12711967112419434"/>
+          <c:y val="9.5808371187279459E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5833274006327852E-2"/>
+          <c:y val="0.13412493009257956"/>
+          <c:w val="0.86648807858317178"/>
+          <c:h val="0.73392707700478388"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Story Points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-42584288"/>
+        <c:axId val="-42593536"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Team Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TeamStats!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.73751684452052302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64902646030953504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21220291591771501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39973351099267102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39946737683089201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42138338604960801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66570509264395805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57475094125878701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73448171956608999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4853089442603999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49774025155029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8214055448098001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.06898519843232</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0098202396804199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6810475580572299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.71595410463051</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2445279391847599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0802588105726798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0481685900652198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0058601643540301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4887144589677899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-42588640"/>
+        <c:axId val="-1945379568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-42584288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="2000" b="0"/>
+                  <a:t>Sprints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42439405194419311"/>
+              <c:y val="0.9097339293401947"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-42593536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-42593536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-42584288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1945379568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-42588640"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-42588640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1945379568"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75183469454318486"/>
+          <c:y val="0.74094548025894913"/>
+          <c:w val="0.18400439075028518"/>
+          <c:h val="0.11549963185444773"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1768,6 +2270,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>43423</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2041,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Scenario1-AllMembersLowExpertiseInAllSkills/ExpertiseBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario1-AllMembersLowExpertiseInAllSkills/ExpertiseBased/WithFigures/TeamStats.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\CourseWork\GitHubRepositories\AgileSoftwareModel\AgileSoftwareModel\Results\Scenario1-AllMembersLowExpertiseInAllSkills\ExpertiseBased\WithFigures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -603,7 +598,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -825,12 +820,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-71581392"/>
-        <c:axId val="-71569968"/>
+        <c:axId val="108799488"/>
+        <c:axId val="108801408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-71581392"/>
+        <c:axId val="108799488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-71569968"/>
+        <c:crossAx val="108801408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -874,7 +870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-71569968"/>
+        <c:axId val="108801408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-71581392"/>
+        <c:crossAx val="108799488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -919,7 +915,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1139,12 +1135,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-71579760"/>
-        <c:axId val="-71577584"/>
+        <c:axId val="108838272"/>
+        <c:axId val="108840448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-71579760"/>
+        <c:axId val="108838272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-71577584"/>
+        <c:crossAx val="108840448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,7 +1185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-71577584"/>
+        <c:axId val="108840448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-71579760"/>
+        <c:crossAx val="108838272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1233,7 +1230,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1558,11 +1555,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-71579216"/>
-        <c:axId val="-71580304"/>
+        <c:axId val="109214336"/>
+        <c:axId val="109224704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-71579216"/>
+        <c:axId val="109214336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-71580304"/>
+        <c:crossAx val="109224704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-71580304"/>
+        <c:axId val="109224704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1644,7 +1641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-71579216"/>
+        <c:crossAx val="109214336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1675,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1740,6 +1737,187 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Team Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>TeamStats!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.73751684452052302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64902646030953504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21220291591771501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39973351099267102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39946737683089201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42138338604960801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66570509264395805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57475094125878701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73448171956608999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4853089442603999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49774025155029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8214055448098001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.06898519843232</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0098202396804199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6810475580572299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.71595410463051</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2445279391847599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0802588105726798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0481685900652198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0058601643540301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4887144589677899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="109513728"/>
+        <c:axId val="109520000"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1839,192 +2017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-42584288"/>
-        <c:axId val="-42593536"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Team Velocity</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>TeamStats!$A$2:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TeamStats!$B$2:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.73751684452052302</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64902646030953504</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21220291591771501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.39973351099267102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39946737683089201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42138338604960801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66570509264395805</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57475094125878701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.73448171956608999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4853089442603999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.49774025155029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.8214055448098001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.06898519843232</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0098202396804199</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6810475580572299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.71595410463051</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2445279391847599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.0802588105726798</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.0481685900652198</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.0058601643540301</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.4887144589677899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-42588640"/>
-        <c:axId val="-1945379568"/>
+        <c:axId val="45656704"/>
+        <c:axId val="45654400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-42584288"/>
+        <c:axId val="109513728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-42593536"/>
+        <c:crossAx val="109520000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2068,14 +2065,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-42593536"/>
+        <c:axId val="109520000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2093,28 +2090,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-42584288"/>
+        <c:crossAx val="109513728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1945379568"/>
+        <c:axId val="45654400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2129,22 +2119,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-42588640"/>
+        <c:crossAx val="45656704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-42588640"/>
+        <c:axId val="45656704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1945379568"/>
+        <c:crossAx val="45654400"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2565,7 +2554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2575,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Scenario1-AllMembersLowExpertiseInAllSkills/ExpertiseBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario1-AllMembersLowExpertiseInAllSkills/ExpertiseBased/WithFigures/TeamStats.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\CourseWork\GitHubRepositories\AgileSoftwareModel\AgileSoftwareModel\Results\Scenario1-AllMembersLowExpertiseInAllSkills\ExpertiseBased\WithFigures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>sprint</t>
   </si>
@@ -35,6 +40,21 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Average Idle Period</t>
+  </si>
+  <si>
+    <t>Idle Periods</t>
+  </si>
+  <si>
+    <t>Average Working Period</t>
+  </si>
+  <si>
+    <t>Sum of Idle Period</t>
+  </si>
+  <si>
+    <t>Sum of Working Period</t>
   </si>
 </sst>
 </file>
@@ -177,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +389,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -485,6 +511,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -530,13 +608,30 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -598,7 +693,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -820,13 +915,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108799488"/>
-        <c:axId val="108801408"/>
+        <c:axId val="943104064"/>
+        <c:axId val="943118752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108799488"/>
+        <c:axId val="943104064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108801408"/>
+        <c:crossAx val="943118752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108801408"/>
+        <c:axId val="943118752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108799488"/>
+        <c:crossAx val="943104064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -915,7 +1009,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -947,7 +1041,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1135,13 +1228,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108838272"/>
-        <c:axId val="108840448"/>
+        <c:axId val="943104608"/>
+        <c:axId val="943114400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108838272"/>
+        <c:axId val="943104608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108840448"/>
+        <c:crossAx val="943114400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1185,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108840448"/>
+        <c:axId val="943114400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108838272"/>
+        <c:crossAx val="943104608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,7 +1322,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1555,11 +1647,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="109214336"/>
-        <c:axId val="109224704"/>
+        <c:axId val="943108416"/>
+        <c:axId val="943109504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109214336"/>
+        <c:axId val="943108416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109224704"/>
+        <c:crossAx val="943109504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1603,7 +1695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109224704"/>
+        <c:axId val="943109504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1641,7 +1733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109214336"/>
+        <c:crossAx val="943108416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1675,7 +1767,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1697,15 +1789,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Team Velocity vs Story</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> Points</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ"/>
-              <a:t> - Expertise Based</a:t>
+              <a:t>Team Velocity vs Average Working Hours - Expertise Based</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1714,8 +1798,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12711967112419434"/>
-          <c:y val="9.5808371187279459E-3"/>
+          <c:x val="0.12711961432903171"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1727,8 +1811,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5833274006327852E-2"/>
-          <c:y val="0.13412493009257956"/>
+          <c:x val="7.1752037416285386E-2"/>
+          <c:y val="0.13731854246548886"/>
           <c:w val="0.86648807858317178"/>
           <c:h val="0.73392707700478388"/>
         </c:manualLayout>
@@ -1911,8 +1995,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109513728"/>
-        <c:axId val="109520000"/>
+        <c:axId val="943111680"/>
+        <c:axId val="943107872"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1921,7 +2005,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Story Points</c:v>
+            <c:strRef>
+              <c:f>TeamStats!$M$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Working Period</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -1935,72 +2027,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>TeamStats!$C$2:$C$22</c:f>
+              <c:f>TeamStats!$M$37:$M$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>72.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>69.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>22.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>36.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>30.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>28.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>31.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>134</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>137</c:v>
+                  <c:v>47.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>179</c:v>
+                  <c:v>52.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>243</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>238</c:v>
+                  <c:v>62.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>197</c:v>
+                  <c:v>51.166666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,16 +2109,27 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45656704"/>
-        <c:axId val="45654400"/>
+        <c:axId val="943112768"/>
+        <c:axId val="943112224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109513728"/>
+        <c:axId val="943111680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2057,7 +2160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109520000"/>
+        <c:crossAx val="943107872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2065,7 +2168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109520000"/>
+        <c:axId val="943107872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,18 +2193,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109513728"/>
+        <c:crossAx val="943111680"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45654400"/>
+        <c:axId val="943112224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2119,21 +2222,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45656704"/>
+        <c:crossAx val="943112768"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="45656704"/>
+        <c:axId val="943112768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45654400"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="943112224"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2146,9 +2250,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.75183469454318486"/>
-          <c:y val="0.74094548025894913"/>
-          <c:w val="0.18400439075028518"/>
+          <c:x val="0.65121636016421436"/>
+          <c:y val="0.73455825551313036"/>
+          <c:w val="0.25382600532498845"/>
           <c:h val="0.11549963185444773"/>
         </c:manualLayout>
       </c:layout>
@@ -2202,16 +2306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>213931</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>162995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>59952</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>121865</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>94589</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139183</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2235,14 +2339,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25772</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>129682</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>42022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>91685</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2266,16 +2370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>271124</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>43423</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>81771</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2554,7 +2658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2562,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB53" sqref="AB53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,8 +3107,939 @@
         <v>12.545454545454545</v>
       </c>
     </row>
+    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="I36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8">
+        <v>8</v>
+      </c>
+      <c r="D37" s="8">
+        <v>7</v>
+      </c>
+      <c r="E37" s="8">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8">
+        <v>8</v>
+      </c>
+      <c r="G37" s="8">
+        <v>8</v>
+      </c>
+      <c r="I37" s="6">
+        <f>AVERAGE(B37:G37)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="J37" s="6">
+        <f>SUM(B37:G37)</f>
+        <v>46</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="6">
+        <f t="shared" ref="M37:M58" si="2" xml:space="preserve"> 80 - I37</f>
+        <v>72.333333333333329</v>
+      </c>
+      <c r="N37" s="6">
+        <f>480-J37</f>
+        <v>434</v>
+      </c>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>56</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" ref="I38:I58" si="3">AVERAGE(B38:G38)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" ref="J38:J58" si="4">SUM(B38:G38)</f>
+        <v>64</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="6">
+        <f t="shared" si="2"/>
+        <v>69.333333333333329</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" ref="N38:N58" si="5">480-J38</f>
+        <v>416</v>
+      </c>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="8">
+        <v>80</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8">
+        <v>80</v>
+      </c>
+      <c r="E39" s="8">
+        <v>24</v>
+      </c>
+      <c r="F39" s="8">
+        <v>80</v>
+      </c>
+      <c r="G39" s="8">
+        <v>80</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="3"/>
+        <v>57.333333333333336</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="4"/>
+        <v>344</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="6">
+        <f t="shared" si="2"/>
+        <v>22.666666666666664</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="8">
+        <v>80</v>
+      </c>
+      <c r="C40" s="8">
+        <v>80</v>
+      </c>
+      <c r="D40" s="8">
+        <v>24</v>
+      </c>
+      <c r="E40" s="8">
+        <v>44</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>32</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="3"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="6">
+        <f t="shared" si="2"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="8">
+        <v>48</v>
+      </c>
+      <c r="C41" s="8">
+        <v>80</v>
+      </c>
+      <c r="D41" s="8">
+        <v>80</v>
+      </c>
+      <c r="E41" s="8">
+        <v>20</v>
+      </c>
+      <c r="F41" s="8">
+        <v>40</v>
+      </c>
+      <c r="G41" s="8">
+        <v>80</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N41" s="6">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>6</v>
+      </c>
+      <c r="B42" s="8">
+        <v>16</v>
+      </c>
+      <c r="C42" s="8">
+        <v>64</v>
+      </c>
+      <c r="D42" s="8">
+        <v>56</v>
+      </c>
+      <c r="E42" s="8">
+        <v>64</v>
+      </c>
+      <c r="F42" s="8">
+        <v>16</v>
+      </c>
+      <c r="G42" s="8">
+        <v>80</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="3"/>
+        <v>49.333333333333336</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="6">
+        <f t="shared" si="2"/>
+        <v>30.666666666666664</v>
+      </c>
+      <c r="N42" s="6">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>7</v>
+      </c>
+      <c r="B43" s="8">
+        <v>80</v>
+      </c>
+      <c r="C43" s="8">
+        <v>40</v>
+      </c>
+      <c r="D43" s="8">
+        <v>60</v>
+      </c>
+      <c r="E43" s="8">
+        <v>46</v>
+      </c>
+      <c r="F43" s="8">
+        <v>52</v>
+      </c>
+      <c r="G43" s="8">
+        <v>32</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="3"/>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="6">
+        <f t="shared" si="2"/>
+        <v>28.333333333333336</v>
+      </c>
+      <c r="N43" s="6">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>8</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
+        <v>62</v>
+      </c>
+      <c r="D44" s="8">
+        <v>76</v>
+      </c>
+      <c r="E44" s="8">
+        <v>54</v>
+      </c>
+      <c r="F44" s="8">
+        <v>56</v>
+      </c>
+      <c r="G44" s="8">
+        <v>44</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="3"/>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="6">
+        <f t="shared" si="2"/>
+        <v>31.333333333333336</v>
+      </c>
+      <c r="N44" s="6">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>9</v>
+      </c>
+      <c r="B45" s="8">
+        <v>27</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+      <c r="D45" s="8">
+        <v>80</v>
+      </c>
+      <c r="E45" s="8">
+        <v>35</v>
+      </c>
+      <c r="F45" s="8">
+        <v>52</v>
+      </c>
+      <c r="G45" s="8">
+        <v>80</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="3"/>
+        <v>45.666666666666664</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="6">
+        <f t="shared" si="2"/>
+        <v>34.333333333333336</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="5"/>
+        <v>206</v>
+      </c>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>10</v>
+      </c>
+      <c r="B46" s="8">
+        <v>43</v>
+      </c>
+      <c r="C46" s="8">
+        <v>48</v>
+      </c>
+      <c r="D46" s="8">
+        <v>67</v>
+      </c>
+      <c r="E46" s="8">
+        <v>49</v>
+      </c>
+      <c r="F46" s="8">
+        <v>54</v>
+      </c>
+      <c r="G46" s="8">
+        <v>54</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="3"/>
+        <v>52.5</v>
+      </c>
+      <c r="J46" s="6">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="6">
+        <f t="shared" si="2"/>
+        <v>27.5</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>11</v>
+      </c>
+      <c r="B47" s="8">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8">
+        <v>49</v>
+      </c>
+      <c r="D47" s="8">
+        <v>38</v>
+      </c>
+      <c r="E47" s="8">
+        <v>12</v>
+      </c>
+      <c r="F47" s="8">
+        <v>28</v>
+      </c>
+      <c r="G47" s="8">
+        <v>4</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="3"/>
+        <v>26.5</v>
+      </c>
+      <c r="J47" s="6">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="6">
+        <f t="shared" si="2"/>
+        <v>53.5</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="5"/>
+        <v>321</v>
+      </c>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>12</v>
+      </c>
+      <c r="B48" s="8">
+        <v>36</v>
+      </c>
+      <c r="C48" s="8">
+        <v>18</v>
+      </c>
+      <c r="D48" s="8">
+        <v>35</v>
+      </c>
+      <c r="E48" s="8">
+        <v>30</v>
+      </c>
+      <c r="F48" s="8">
+        <v>20</v>
+      </c>
+      <c r="G48" s="8">
+        <v>39</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" si="3"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="6">
+        <f t="shared" si="2"/>
+        <v>50.333333333333329</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="5"/>
+        <v>302</v>
+      </c>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>13</v>
+      </c>
+      <c r="B49" s="8">
+        <v>10</v>
+      </c>
+      <c r="C49" s="8">
+        <v>23</v>
+      </c>
+      <c r="D49" s="8">
+        <v>30</v>
+      </c>
+      <c r="E49" s="8">
+        <v>12</v>
+      </c>
+      <c r="F49" s="8">
+        <v>14</v>
+      </c>
+      <c r="G49" s="8">
+        <v>10</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="6">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>14</v>
+      </c>
+      <c r="B50" s="8">
+        <v>7</v>
+      </c>
+      <c r="C50" s="8">
+        <v>15</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <v>11</v>
+      </c>
+      <c r="F50" s="8">
+        <v>9</v>
+      </c>
+      <c r="G50" s="8">
+        <v>9</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="6">
+        <f t="shared" si="2"/>
+        <v>71.5</v>
+      </c>
+      <c r="N50" s="6">
+        <f t="shared" si="5"/>
+        <v>429</v>
+      </c>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>15</v>
+      </c>
+      <c r="B51" s="8">
+        <v>80</v>
+      </c>
+      <c r="C51" s="8">
+        <v>15</v>
+      </c>
+      <c r="D51" s="8">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8">
+        <v>80</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="6">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>16</v>
+      </c>
+      <c r="B52" s="8">
+        <v>80</v>
+      </c>
+      <c r="C52" s="8">
+        <v>15</v>
+      </c>
+      <c r="D52" s="8">
+        <v>80</v>
+      </c>
+      <c r="E52" s="8">
+        <v>3</v>
+      </c>
+      <c r="F52" s="8">
+        <v>12</v>
+      </c>
+      <c r="G52" s="8">
+        <v>14</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="J52" s="6">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="6">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N52" s="6">
+        <f t="shared" si="5"/>
+        <v>276</v>
+      </c>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>17</v>
+      </c>
+      <c r="B53" s="8">
+        <v>36</v>
+      </c>
+      <c r="C53" s="8">
+        <v>35</v>
+      </c>
+      <c r="D53" s="8">
+        <v>19</v>
+      </c>
+      <c r="E53" s="8">
+        <v>34</v>
+      </c>
+      <c r="F53" s="8">
+        <v>36</v>
+      </c>
+      <c r="G53" s="8">
+        <v>36</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="3"/>
+        <v>32.666666666666664</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="6">
+        <f t="shared" si="2"/>
+        <v>47.333333333333336</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="5"/>
+        <v>284</v>
+      </c>
+      <c r="O53" s="10"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>18</v>
+      </c>
+      <c r="B54" s="8">
+        <v>22</v>
+      </c>
+      <c r="C54" s="8">
+        <v>34</v>
+      </c>
+      <c r="D54" s="8">
+        <v>23</v>
+      </c>
+      <c r="E54" s="8">
+        <v>23</v>
+      </c>
+      <c r="F54" s="8">
+        <v>31</v>
+      </c>
+      <c r="G54" s="8">
+        <v>31</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="3"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="6">
+        <f t="shared" si="2"/>
+        <v>52.666666666666671</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="5"/>
+        <v>316</v>
+      </c>
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>19</v>
+      </c>
+      <c r="B55" s="8">
+        <v>14</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8">
+        <v>12</v>
+      </c>
+      <c r="E55" s="8">
+        <v>15</v>
+      </c>
+      <c r="F55" s="8">
+        <v>14</v>
+      </c>
+      <c r="G55" s="8">
+        <v>13</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="J55" s="6">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="6">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="5"/>
+        <v>411</v>
+      </c>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>20</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2</v>
+      </c>
+      <c r="D56" s="8">
+        <v>5</v>
+      </c>
+      <c r="E56" s="8">
+        <v>14</v>
+      </c>
+      <c r="F56" s="8">
+        <v>2</v>
+      </c>
+      <c r="G56" s="8">
+        <v>80</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="3"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="J56" s="6">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="6">
+        <f t="shared" si="2"/>
+        <v>62.666666666666671</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>21</v>
+      </c>
+      <c r="B57" s="8">
+        <v>80</v>
+      </c>
+      <c r="C57" s="8">
+        <v>80</v>
+      </c>
+      <c r="D57" s="8">
+        <v>3</v>
+      </c>
+      <c r="E57" s="8">
+        <v>1</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>8</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="3"/>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="J57" s="6">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="6">
+        <f t="shared" si="2"/>
+        <v>51.166666666666671</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="5"/>
+        <v>307</v>
+      </c>
+      <c r="O57" s="10"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>22</v>
+      </c>
+      <c r="B58" s="8">
+        <v>80</v>
+      </c>
+      <c r="C58" s="8">
+        <v>80</v>
+      </c>
+      <c r="D58" s="8">
+        <v>80</v>
+      </c>
+      <c r="E58" s="8">
+        <v>52</v>
+      </c>
+      <c r="F58" s="8">
+        <v>80</v>
+      </c>
+      <c r="G58" s="8">
+        <v>80</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="3"/>
+        <v>75.333333333333329</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" si="4"/>
+        <v>452</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6666666666666714</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="O58" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A36:G36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>